--- a/data/data_raw/potencial/potencial_rio_claro_20231103.xlsx
+++ b/data/data_raw/potencial/potencial_rio_claro_20231103.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HEMERA\ID2023\id23_10297\data\data_raw\potencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E19D8B-E5D7-46D5-A0D4-50A6693D490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636B89DB-AD41-4D57-91FA-D6377428E060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,13 +69,13 @@
     <t>T2H55A4</t>
   </si>
   <si>
-    <t>T0H51A4</t>
-  </si>
-  <si>
-    <t>T0H51A5</t>
-  </si>
-  <si>
     <t>T0H51A7</t>
+  </si>
+  <si>
+    <t>T0H52A8</t>
+  </si>
+  <si>
+    <t>T0H51A8</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>14.4</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>13.14</v>
